--- a/doc/CS673_ProgressReport_team3.xlsx
+++ b/doc/CS673_ProgressReport_team3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="250">
   <si>
     <t xml:space="preserve">iteration </t>
   </si>
@@ -120,6 +120,22 @@
     <t>3/10 - 4/7</t>
   </si>
   <si>
+    <t>- search engine
+- post a product
+- public chat system
+- database
+- new homepage design
+- integrated security features</t>
+  </si>
+  <si>
+    <t>- converting flask functions to API classes
+- integrating chat system
+- beginning testing</t>
+  </si>
+  <si>
+    <t>- make project cohesive and presentable for iteration 3</t>
+  </si>
+  <si>
     <t>4/7 - 4/28</t>
   </si>
   <si>
@@ -209,7 +225,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t>: Backup Project Leader, requirement leader</t>
+      <t>: QA Leader</t>
     </r>
   </si>
   <si>
@@ -378,6 +394,57 @@
     <t>0-Learn about Unit testing for Python 3- Implement few testing 4-Start unit testing 5- Discuss testing with my teammates and make progress. 7-Start SDDD document</t>
   </si>
   <si>
+    <t>3/17 - 3/24</t>
+  </si>
+  <si>
+    <t>0-Started to learn about Selenium testing framework                                                                                                                                                        5- Discussed unit testing with teammates                                                                                                                                                                          7- Started to work on SDDD document</t>
+  </si>
+  <si>
+    <t>5-Task assignments are not clear</t>
+  </si>
+  <si>
+    <t>0-Research different frameworks to do automated testing</t>
+  </si>
+  <si>
+    <t>3/24 - 3/31</t>
+  </si>
+  <si>
+    <t>0-Researched ways to implement selenium framework in visual studio code                                                                                                                                                                                                                          3- Worked on implementing selenium testing framework in visual studio code                                                                                                                                                                                                                        5-Discuss iteration 2 requirements with team members and divide the sections in SDDD document among team members                                                                                                                                                   7-Started to work on unit testing assignment</t>
+  </si>
+  <si>
+    <t>3- Worked on launching Selenium in visual studio code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Had many problems launching Selenium in Visiual Studio Code. It took so much time to figure out how to install it properly. </t>
+  </si>
+  <si>
+    <t>3- Do more research and get assistance from people who know both visual studio and selenium</t>
+  </si>
+  <si>
+    <t>3- Start writing test scripts in selenium and discuss the results with team members</t>
+  </si>
+  <si>
+    <t>3/31 - 4/7</t>
+  </si>
+  <si>
+    <t>0-Spent a lot of time researching how to write automated ui testing test scripts                                                                                                                                                                                     3-Successfully launched Selenium in visual studio and wrote test scripts. Created 8 test files in visual studio.                                                                                                                                     5- Discussed iteration 2 presentation with teammates and brainstormed on the requirements for the presentation.                                                                                                                             7- Worked on writing test scripts for automated ui testing and prepared for iteration 2 presentation</t>
+  </si>
+  <si>
+    <t>3- Launched selenium in visiual studio and wrote test scripts for our webapp.                                                           7- Prepared for iteration 2 presentation</t>
+  </si>
+  <si>
+    <t>3- Had to import so many features and had to code many extra lines to be able to use selenium in visual studio.                                                                          5- Communication issues with team members. Responsibility seperation is not clear. Testing process not understood by everyone in the team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Search web and get assistance from people who are experienced with selenium and visual studio.    5-Make a better plan for testing and demand a better way to split the responsibilities. </t>
+  </si>
+  <si>
+    <t>0-Learn more about unittesting. 3-Write some unittests 5- Talk to team members about the testing results and make suggestions. 7- Catchup with unittesting and complete Lab3. Write more automated test scripts and improve the ones already written.</t>
+  </si>
+  <si>
+    <t>4/7 - 4/14</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -465,6 +532,77 @@
   </si>
   <si>
     <t>maybe create a better algorithm for searching?</t>
+  </si>
+  <si>
+    <t>3/11 - 3/17</t>
+  </si>
+  <si>
+    <t>0 - reading books of security (mainly focusing on https);
+7 - presentation</t>
+  </si>
+  <si>
+    <t>I decide to study for the https thing to ensure web's safety</t>
+  </si>
+  <si>
+    <t>Depending on the result of presentation</t>
+  </si>
+  <si>
+    <t>3/18 - 3/24</t>
+  </si>
+  <si>
+    <t>4 - read Eli's code, and find some security problems
+7 - update passwordHash (add rounds of hash and pbkdf2); study how to apply https into our project</t>
+  </si>
+  <si>
+    <t>Add pbkdf2 into passwordHash; Update passwordHash in order to improve the security of SHA-3; read Eli's code and find some problems</t>
+  </si>
+  <si>
+    <t>it seems that we can use github to add https after we publish the project</t>
+  </si>
+  <si>
+    <t>The study of https stops, I will try it when we public the project in the end</t>
+  </si>
+  <si>
+    <t>depending on the next meeting</t>
+  </si>
+  <si>
+    <t>3/25 - 3/31</t>
+  </si>
+  <si>
+    <t>4 - read and understand project's code
+7 - update footer (the "Contact Us" button); start ContactUs.js</t>
+  </si>
+  <si>
+    <t>The ContactUs button and its function. About ContactUs.js, there are still things we need to discuss</t>
+  </si>
+  <si>
+    <t>I don't know if we need a particular email for the project, or we should just save feedback on a file</t>
+  </si>
+  <si>
+    <t>plan to talk about it to the group</t>
+  </si>
+  <si>
+    <t>The ContactUs page</t>
+  </si>
+  <si>
+    <t>4/1 - 4/7</t>
+  </si>
+  <si>
+    <t>0 - Contact Us function through email
+4 - Lab 3. Apply unittest into the code. But I don't update it to the main branch for now
+7 - update passwordHash script; start contact us page (This will be updated to the main branch after iteration 2)</t>
+  </si>
+  <si>
+    <t>update passwordHash; start contact us function, but fail to finish it this week</t>
+  </si>
+  <si>
+    <t>Have an issue of email sending, may relate to localhost</t>
+  </si>
+  <si>
+    <t>try to fix the issue; presentation 2</t>
+  </si>
+  <si>
+    <t>4/8 - 4/14</t>
   </si>
   <si>
     <r>
@@ -556,6 +694,37 @@
   </si>
   <si>
     <t>Product details page</t>
+  </si>
+  <si>
+    <t>0. Learned open API swagger, looked into reactJS documentation streamlining, heroku deployment
+1. Worked on requirement analysis
+5. communication with the team via slack and zoom meetings
+3. deploying app on heroku
+7. reading class material, working on assessments, labs, etc if applicable</t>
+  </si>
+  <si>
+    <t>Heroku deployment</t>
+  </si>
+  <si>
+    <t>0. Learned continuous heroku deployment
+1. Worked on SDD
+5. communication with the team via slack and zoom meetings
+3. changing app.py methods to swagger API classes
+7. reading class material, working on assessments, labs, etc if applicable</t>
+  </si>
+  <si>
+    <t>API Classes</t>
+  </si>
+  <si>
+    <t>0. Learned email integration
+1. Worked on testing document
+5. communication with the team via slack and zoom meetings
+4. writing unit test for signup
+3. refactoring reactjs components
+7. reading class material, working on assessments, labs, etc if applicable</t>
+  </si>
+  <si>
+    <t>Refactoring reactjs components, unittest for signup</t>
   </si>
   <si>
     <r>
@@ -653,6 +822,54 @@
   </si>
   <si>
     <t>get individual item page created maybe</t>
+  </si>
+  <si>
+    <t>converted project from python object storage to sqlite db, 
+added functionality for product detail page
+had extra meetings helping team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team made new style for section1 categories, need to make it functional </t>
+  </si>
+  <si>
+    <t>search function</t>
+  </si>
+  <si>
+    <t>- got working photos on product cards
+- implemented search function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">browser cant access images unless they're in public/ </t>
+  </si>
+  <si>
+    <t>- post a product
+- need to track who's logged in at any time so we know who seller is on post</t>
+  </si>
+  <si>
+    <t>- implemented "post a product" function
+- database changes</t>
+  </si>
+  <si>
+    <t>- had to refactor a couple things to work with posting a product:
+  - signin: added username to localStorage so seller can be determined on post
+  - photos: would be bad practice to save inventory photos in project directory</t>
+  </si>
+  <si>
+    <t>- photos now live in the DB as blob format. used FileReader on dropzone handledrop. took a long time to figure this out</t>
+  </si>
+  <si>
+    <t>- integrate passwordHash and passwordManager with login/signup</t>
+  </si>
+  <si>
+    <t>- integrated security features, db stores encrypted pass
+- created test file for login
+- preparing project documents and user stories for iteration 2 presentation</t>
+  </si>
+  <si>
+    <t>- public chat system integrated but private will be needed to chat with seller</t>
+  </si>
+  <si>
+    <t>- need to plan with Jay for private chat system for next iteration</t>
   </si>
   <si>
     <t>0 - learn git, read tutorial for git and pivotal tracker
@@ -767,6 +984,72 @@
 6 - 
 7 - prepare iteration 1 presentation </t>
   </si>
+  <si>
+    <t>3/10-3/17</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">0 - research on </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>socket.io</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> for private system and other dependencies that are used in chat system.
+1 -
+2 - 
+3 - Implementing open chat system and private chat system. working for integration of our web and chat system
+4 - testing the updated version of the chat system
+5  - weekly team meeting.
+6 - 
+7 - </t>
+    </r>
+  </si>
+  <si>
+    <t>3/17-3/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - research on integration method for the chat system and web app. private chat. 
+1 -
+2 - 
+3 - Implementing open chat system and private chat system. working for integration of our web and chat system
+4 - testing the updated version of the chat system
+5 - weekly team meeting.
+6 - 
+7 - </t>
+  </si>
+  <si>
+    <t>3/24-3/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - learn server integration using dependeny of concurrent
+1 -
+2 - 
+3 - working for integration of our web and chat system
+4 -  Testing the updated version of the chat system
+5 - Weekly team meeting
+6 - 
+7 - </t>
+  </si>
+  <si>
+    <t>3/31-4/7</t>
+  </si>
+  <si>
+    <t>0 - learn server integration using dependeny of concurrent
+1 -
+2 - 
+3 - working for integration of our web and chat system
+4 - Testing updated version of the chat system
+5 - weekly team meeting, Integration meeting with Dinara.
+6 - 
+7 - Prepare for itereation 2 presentation</t>
+  </si>
 </sst>
 </file>
 
@@ -841,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -919,6 +1202,18 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1148,14 +1443,49 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>145.0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
         <v>3.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -1198,7 +1528,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1228,37 +1558,37 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -1278,46 +1608,46 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1670,7 @@
     <col customWidth="1" min="3" max="3" width="8.29"/>
     <col customWidth="1" min="4" max="4" width="9.57"/>
     <col customWidth="1" min="5" max="5" width="8.14"/>
-    <col customWidth="1" min="6" max="6" width="24.29"/>
+    <col customWidth="1" min="6" max="6" width="31.86"/>
     <col customWidth="1" min="7" max="7" width="10.43"/>
     <col customWidth="1" min="8" max="10" width="10.0"/>
     <col customWidth="1" min="11" max="11" width="8.0"/>
@@ -1357,7 +1687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1383,7 +1713,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -1404,22 +1734,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
@@ -1443,22 +1773,22 @@
         <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1473,10 +1803,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:C10" si="1">D4+E4</f>
+        <f t="shared" ref="C4:C12" si="1">D4+E4</f>
         <v>7</v>
       </c>
       <c r="D4" s="21">
@@ -1487,7 +1817,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G4" s="21">
         <v>3.0</v>
@@ -1508,16 +1838,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -1535,7 +1865,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
@@ -1548,7 +1878,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" s="6">
         <v>1.0</v>
@@ -1565,12 +1895,12 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S5" s="6">
         <v>1.0</v>
@@ -1584,7 +1914,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
@@ -1597,7 +1927,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" s="6">
         <v>2.0</v>
@@ -1614,16 +1944,16 @@
         <v>2.0</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S6" s="6">
         <v>6.0</v>
@@ -1637,7 +1967,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
@@ -1650,7 +1980,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6">
         <v>3.0</v>
@@ -1669,12 +1999,12 @@
         <v>4.0</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S7" s="6">
         <v>6.0</v>
@@ -1688,7 +2018,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
@@ -1701,7 +2031,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6">
         <v>3.0</v>
@@ -1724,16 +2054,16 @@
         <v>1.0</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S8" s="6">
         <v>5.0</v>
@@ -1747,7 +2077,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
@@ -1760,7 +2090,7 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6">
         <v>2.0</v>
@@ -1783,16 +2113,16 @@
         <v>2.0</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S9" s="6">
         <v>5.0</v>
@@ -1806,7 +2136,7 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
@@ -1819,7 +2149,7 @@
         <v>1.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" s="6">
         <v>4.0</v>
@@ -1840,16 +2170,16 @@
         <v>5.0</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S10" s="6">
         <v>7.0</v>
@@ -1859,80 +2189,146 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11">
-      <c r="C11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="A11" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="7">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="A12" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="7">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="C13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
+      <c r="A13" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="7">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15">
       <c r="G15" s="8"/>
@@ -19758,14 +20154,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -19784,130 +20175,159 @@
       <c r="V1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="A3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="7">
         <v>1.0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>109</v>
+      <c r="F4" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="G4" s="6">
         <v>4.0</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="6">
+        <v>0.5</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="6">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="R4" s="6" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -19916,48 +20336,42 @@
     </row>
     <row r="5">
       <c r="A5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E5" s="7">
         <v>2.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1.0</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G5" s="6">
         <v>4.0</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -19966,28 +20380,28 @@
     </row>
     <row r="6">
       <c r="A6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="7">
         <v>3.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6.0</v>
-      </c>
       <c r="E6" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4.0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="6">
+        <v>1.0</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -19996,12 +20410,12 @@
         <v>2.0</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="6" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -20010,42 +20424,46 @@
     </row>
     <row r="7">
       <c r="A7" s="7">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C7" s="7">
-        <v>4.0</v>
+        <v>9.5</v>
       </c>
       <c r="D7" s="7">
-        <v>3.0</v>
+        <v>8.5</v>
       </c>
       <c r="E7" s="7">
         <v>1.0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.5</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="R7" s="6" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -20054,46 +20472,44 @@
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7">
-        <v>9.5</v>
+        <v>12.0</v>
       </c>
       <c r="D8" s="7">
-        <v>8.5</v>
+        <v>11.0</v>
       </c>
       <c r="E8" s="7">
         <v>1.0</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G8" s="6">
-        <v>1.5</v>
+        <v>4.0</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="6">
+        <v>6.0</v>
+      </c>
       <c r="O8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="6" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -20102,44 +20518,42 @@
     </row>
     <row r="9">
       <c r="A9" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="7">
         <v>6.0</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="7">
-        <v>12.0</v>
-      </c>
       <c r="D9" s="7">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" s="7">
         <v>1.0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G9" s="6">
         <v>4.0</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="6">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="6" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -20147,60 +20561,157 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10">
+      <c r="A10" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="6">
+        <v>1.0</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="N10" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
     <row r="11">
+      <c r="A11" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="N11" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
     <row r="12">
-      <c r="G12" s="8"/>
+      <c r="A12" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.0</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="6">
+        <v>2.5</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="N12" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="R12" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
     <row r="13">
+      <c r="A13" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="24"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -37984,27 +38495,9 @@
       <c r="U1000" s="8"/>
       <c r="V1000" s="8"/>
     </row>
-    <row r="1001">
-      <c r="G1001" s="8"/>
-      <c r="H1001" s="8"/>
-      <c r="I1001" s="8"/>
-      <c r="J1001" s="8"/>
-      <c r="K1001" s="8"/>
-      <c r="L1001" s="8"/>
-      <c r="M1001" s="8"/>
-      <c r="N1001" s="8"/>
-      <c r="O1001" s="8"/>
-      <c r="P1001" s="8"/>
-      <c r="Q1001" s="8"/>
-      <c r="R1001" s="8"/>
-      <c r="S1001" s="8"/>
-      <c r="T1001" s="8"/>
-      <c r="U1001" s="8"/>
-      <c r="V1001" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38028,7 +38521,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -38046,22 +38539,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
@@ -38085,22 +38578,22 @@
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -38108,21 +38601,21 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C9" si="1">D3+E3</f>
+        <f t="shared" ref="C3:C13" si="1">D3+E3</f>
         <v>5</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D9" si="2">sum (G3:N3)</f>
+        <f t="shared" ref="D3:D13" si="2">sum (G3:N3)</f>
         <v>4</v>
       </c>
       <c r="E3" s="6">
         <v>1.0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="G3" s="7">
         <v>2.0</v>
@@ -38139,7 +38632,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
@@ -38153,7 +38646,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7">
         <v>3.0</v>
@@ -38173,7 +38666,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
@@ -38187,7 +38680,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7">
         <v>2.0</v>
@@ -38202,7 +38695,7 @@
         <v>2.0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -38210,7 +38703,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
@@ -38224,7 +38717,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7">
         <v>2.0</v>
@@ -38245,7 +38738,7 @@
         <v>2.0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -38253,7 +38746,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
@@ -38267,7 +38760,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7">
         <v>2.0</v>
@@ -38288,7 +38781,7 @@
         <v>2.0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -38296,7 +38789,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
@@ -38310,7 +38803,7 @@
         <v>2.0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7">
         <v>2.0</v>
@@ -38331,7 +38824,7 @@
         <v>2.0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -38339,7 +38832,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
@@ -38353,7 +38846,7 @@
         <v>2.0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7">
         <v>2.0</v>
@@ -38374,8 +38867,155 @@
         <v>2.0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -38398,8 +39038,8 @@
     <col customWidth="1" min="1" max="1" width="8.86"/>
     <col customWidth="1" min="2" max="2" width="11.57"/>
     <col customWidth="1" min="3" max="3" width="8.29"/>
-    <col customWidth="1" min="4" max="4" width="9.57"/>
-    <col customWidth="1" min="5" max="5" width="8.14"/>
+    <col customWidth="1" min="4" max="4" width="12.43"/>
+    <col customWidth="1" min="5" max="5" width="10.57"/>
     <col customWidth="1" min="6" max="6" width="37.14"/>
     <col customWidth="1" min="7" max="7" width="6.43"/>
     <col customWidth="1" min="8" max="8" width="6.57"/>
@@ -38418,7 +39058,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -38444,7 +39084,7 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -38465,22 +39105,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
@@ -38504,22 +39144,22 @@
         <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -38534,7 +39174,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="21">
         <v>5.0</v>
@@ -38563,13 +39203,13 @@
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21">
@@ -38588,7 +39228,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7">
         <v>5.0</v>
@@ -38614,16 +39254,16 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="6" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="S5" s="6">
         <v>6.0</v>
@@ -38637,7 +39277,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C6" s="7">
         <v>6.0</v>
@@ -38665,16 +39305,16 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="6" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="S6" s="6">
         <v>8.0</v>
@@ -38688,7 +39328,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="C7" s="7">
         <v>11.0</v>
@@ -38714,16 +39354,16 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="6" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="S7" s="6">
         <v>8.0</v>
@@ -38737,7 +39377,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C8" s="7">
         <v>13.0</v>
@@ -38763,16 +39403,16 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="6" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="S8" s="6">
         <v>8.0</v>
@@ -38786,7 +39426,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C9" s="7">
         <v>13.0</v>
@@ -38812,16 +39452,16 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="6" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="S9" s="6">
         <v>8.0</v>
@@ -38835,80 +39475,200 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="C10" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.0</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="6">
+        <v>8.0</v>
+      </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="6">
+        <v>2.0</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="O10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="R10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="S10" s="6">
+        <v>10.0</v>
+      </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
     <row r="11">
-      <c r="G11" s="8"/>
+      <c r="A11" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.0</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="6">
+        <v>8.0</v>
+      </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="6">
+        <v>2.0</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="O11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="S11" s="6">
+        <v>10.0</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
     <row r="12">
-      <c r="G12" s="8"/>
+      <c r="A12" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.0</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="6">
+        <v>12.0</v>
+      </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="6">
+        <v>2.0</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="O12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="S12" s="6">
+        <v>10.0</v>
+      </c>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
     <row r="13">
-      <c r="G13" s="8"/>
+      <c r="A13" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.0</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="6">
+        <v>11.0</v>
+      </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="6">
+        <v>1.0</v>
+      </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="N13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="S13" s="6">
+        <v>12.0</v>
+      </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
     <row r="14">
+      <c r="A14" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -56733,22 +57493,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
@@ -56772,22 +57532,22 @@
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -56798,7 +57558,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6">
         <v>9.5</v>
@@ -56810,7 +57570,7 @@
         <v>1.5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="G2" s="7">
         <v>3.0</v>
@@ -56833,7 +57593,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6">
         <v>8.0</v>
@@ -56845,7 +57605,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="G3" s="7">
         <v>2.0</v>
@@ -56868,7 +57628,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6">
         <v>11.5</v>
@@ -56880,7 +57640,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7">
         <v>4.0</v>
@@ -56903,7 +57663,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="C5" s="6">
         <v>11.5</v>
@@ -56915,7 +57675,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7">
         <v>2.0</v>
@@ -56941,7 +57701,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="C6" s="7">
         <v>11.0</v>
@@ -56953,7 +57713,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7">
         <v>3.0</v>
@@ -56979,7 +57739,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C7" s="7">
         <v>12.0</v>
@@ -56991,7 +57751,7 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7">
         <v>2.0</v>
@@ -57014,12 +57774,156 @@
       <c r="N7" s="7">
         <v>2.0</v>
       </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="J8" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="27">
+        <v>14.0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="J10" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="27">
+        <v>14.5</v>
+      </c>
+      <c r="D11" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F5"/>
     <hyperlink r:id="rId2" ref="F6"/>
+    <hyperlink r:id="rId3" ref="F8"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>